--- a/result/complex/complex3/LengthAngleSafety.xlsx
+++ b/result/complex/complex3/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0.05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001249999999999999</v>
+        <v>0.001016323201858174</v>
       </c>
       <c r="E2" t="n">
         <v>0.04433867559066907</v>
@@ -487,7 +487,7 @@
         <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005866603455116436</v>
+        <v>0.004050965523330885</v>
       </c>
       <c r="E3" t="n">
         <v>0.1928204586048459</v>
@@ -506,10 +506,10 @@
         <v>0.918871054314695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02011663785895728</v>
+        <v>0.0149849239216109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8805219312989999</v>
+        <v>0.8805219312989998</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,29 @@
         <v>0.6323874193133611</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01601914515093494</v>
+        <v>0.01180130576484925</v>
       </c>
       <c r="E5" t="n">
         <v>0.6045776173903297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result/complex/complex3/LengthAngleSafety.xlsx
+++ b/result/complex/complex3/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/result/complex/complex3/LengthAngleSafety.xlsx
+++ b/result/complex/complex3/LengthAngleSafety.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001016323201858174</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04433867559066907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
